--- a/target/classes/Addvehicle.xlsx
+++ b/target/classes/Addvehicle.xlsx
@@ -81,10 +81,10 @@
     <t>2022</t>
   </si>
   <si>
-    <t>TN58AY7612</t>
-  </si>
-  <si>
-    <t>Veh - 63</t>
+    <t>Veh - 79</t>
+  </si>
+  <si>
+    <t>TN58KG2032</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,13 +495,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>

--- a/target/classes/Addvehicle.xlsx
+++ b/target/classes/Addvehicle.xlsx
@@ -81,10 +81,10 @@
     <t>2022</t>
   </si>
   <si>
-    <t>Veh - 79</t>
-  </si>
-  <si>
-    <t>TN58KG2032</t>
+    <t>TN58KF8723</t>
+  </si>
+  <si>
+    <t>Veh - 81</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,13 +495,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>

--- a/target/classes/Addvehicle.xlsx
+++ b/target/classes/Addvehicle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610" tabRatio="184"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Vehicle Make Year</t>
   </si>
@@ -48,9 +48,6 @@
     <t>1200cc</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -81,10 +78,10 @@
     <t>2022</t>
   </si>
   <si>
-    <t>TN58KF8723</t>
-  </si>
-  <si>
-    <t>Veh - 81</t>
+    <t>TN58KI3456</t>
+  </si>
+  <si>
+    <t>Veh - 84</t>
   </si>
 </sst>
 </file>
@@ -478,12 +475,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -492,27 +489,27 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -521,22 +518,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
